--- a/Projects/RINIELSENUS/MILLERCOORS/Data/Miller Coors KPI Template_v1.xlsx
+++ b/Projects/RINIELSENUS/MILLERCOORS/Data/Miller Coors KPI Template_v1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Adjacencies, Brands &amp; Segments" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,8 +17,8 @@
     <sheet name="Adjacency" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">KPIs!$A$1:$C$39</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$2:$E$39</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">KPIs!$A$1:$C$38</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$E$38</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'KPIs Reference'!$A$1:$D$42</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'KPIs Reference'!$A$2:$I$42</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="Print_Area_0" vbProcedure="false">'KPIs Reference'!$A$1:$D$42</definedName>
@@ -31,6 +31,7 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">'KPIs Reference'!$A$1:$D$42</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0_0_0" vbProcedure="false">'KPIs Reference'!$A$1:$D$42</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0_0_0_0" vbProcedure="false">'KPIs Reference'!$A$1:$D$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0" vbProcedure="false">'KPIs Reference'!$A$1:$D$42</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'KPIs Reference'!$A$2:$I$42</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">'KPIs Reference'!$A$2:$I$42</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'KPIs Reference'!$A$2:$I$42</definedName>
@@ -39,22 +40,25 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'KPIs Reference'!$A$2:$I$42</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'KPIs Reference'!$A$2:$I$42</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'KPIs Reference'!$A$2:$I$42</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">KPIs!$A$1:$C$39</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0" vbProcedure="false">KPIs!$A$1:$C$39</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0" vbProcedure="false">KPIs!$A$1:$C$39</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">KPIs!$A$1:$C$39</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">KPIs!$A$1:$C$39</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$C$39</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$C$39</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$C$39</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$2:$E$39</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$2:$E$39</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$2:$E$39</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$2:$E$39</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$2:$E$39</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$2:$E$39</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$2:$E$39</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$2:$E$39</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'KPIs Reference'!$A$2:$I$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">KPIs!$A$1:$C$38</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0" vbProcedure="false">KPIs!$A$1:$C$38</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0" vbProcedure="false">KPIs!$A$1:$C$38</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">KPIs!$A$1:$C$38</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">KPIs!$A$1:$C$38</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$C$38</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$C$38</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$C$38</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$C$38</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$E$38</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$E$38</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$E$38</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$E$38</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$E$38</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$E$38</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$E$38</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$E$38</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$E$38</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1068,11 +1072,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.1222222222222"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.3333333333333"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="57.4259259259259"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="62.3259259259259"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.40740740740741"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.9074074074074"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.3148148148148"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="58.7962962962963"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="63.8925925925926"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.6037037037037"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1454,16 +1458,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4444444444444"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.32962962962963"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.9666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="94.4666666666667"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.9925925925926"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.5222222222222"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.8333333333333"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.1407407407407"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="9" width="99.8555555555556"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.40740740740741"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.6407407407407"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.42592592592593"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.7518518518519"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="96.9148148148148"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3851851851852"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.9111111111111"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.3222222222222"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.9259259259259"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="9" width="102.403703703704"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.6037037037037"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2561,60 +2565,74 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.32962962962963"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.9666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="94.4666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.2666666666667"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.2444444444444"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="107.696296296296"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.4222222222222"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="195.3"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.40740740740741"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="122.1"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.40740740740741"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.42592592592593"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.7518518518519"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="96.9148148148148"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.6592592592593"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.7333333333333"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="110.440740740741"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.9111111111111"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="200.3"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="125.237037037037"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.6037037037037"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10"/>
-    </row>
-    <row r="2" s="10" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+    <row r="1" s="10" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>75</v>
@@ -2625,13 +2643,13 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>75</v>
@@ -2642,30 +2660,30 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>163</v>
+        <v>86</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>75</v>
@@ -2674,15 +2692,15 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>86</v>
+      <c r="C7" s="13" t="s">
+        <v>165</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>75</v>
@@ -2693,13 +2711,13 @@
     </row>
     <row r="8" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>75</v>
@@ -2710,13 +2728,13 @@
     </row>
     <row r="9" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>166</v>
+        <v>17</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>75</v>
@@ -2727,13 +2745,13 @@
     </row>
     <row r="10" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>75</v>
@@ -2744,30 +2762,30 @@
     </row>
     <row r="11" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>75</v>
@@ -2776,34 +2794,34 @@
         <v>161</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" s="18" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>75</v>
       </c>
       <c r="E13" s="22" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="14" s="18" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" s="15" t="s">
+      <c r="C14" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E14" s="22" t="s">
@@ -2812,13 +2830,13 @@
     </row>
     <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>75</v>
@@ -2829,13 +2847,13 @@
     </row>
     <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>75</v>
@@ -2846,13 +2864,13 @@
     </row>
     <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>75</v>
@@ -2863,13 +2881,13 @@
     </row>
     <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>75</v>
@@ -2880,13 +2898,13 @@
     </row>
     <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>75</v>
@@ -2897,13 +2915,13 @@
     </row>
     <row r="20" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>75</v>
@@ -2914,13 +2932,13 @@
     </row>
     <row r="21" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>75</v>
@@ -2931,13 +2949,13 @@
     </row>
     <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>75</v>
@@ -2948,47 +2966,47 @@
     </row>
     <row r="23" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="12" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>169</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>75</v>
@@ -2999,13 +3017,13 @@
     </row>
     <row r="26" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>169</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>75</v>
@@ -3016,13 +3034,13 @@
     </row>
     <row r="27" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>169</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>75</v>
@@ -3033,30 +3051,30 @@
     </row>
     <row r="28" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>169</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>169</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>75</v>
@@ -3067,13 +3085,13 @@
     </row>
     <row r="30" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>169</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>75</v>
@@ -3084,13 +3102,13 @@
     </row>
     <row r="31" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>169</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>75</v>
@@ -3101,64 +3119,64 @@
     </row>
     <row r="32" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="12" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>143</v>
+        <v>170</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>171</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="12" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="12" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="12" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>75</v>
@@ -3169,13 +3187,13 @@
     </row>
     <row r="36" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="12" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>75</v>
@@ -3186,13 +3204,13 @@
     </row>
     <row r="37" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="12" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>75</v>
@@ -3203,13 +3221,13 @@
     </row>
     <row r="38" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="12" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>75</v>
@@ -3220,13 +3238,13 @@
     </row>
     <row r="39" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="12" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="C39" s="20" t="s">
-        <v>173</v>
+      <c r="C39" s="0" t="s">
+        <v>174</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>75</v>
@@ -3237,13 +3255,13 @@
     </row>
     <row r="40" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="12" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>170</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>75</v>
@@ -3252,25 +3270,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="12" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E41" s="22" t="s">
-        <v>161</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:E39"/>
+  <autoFilter ref="A1:E38"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3295,12 +3296,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="61.2444444444444"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6148148148148"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0518518518519"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="107.696296296296"/>
-    <col collapsed="false" hidden="false" max="1023" min="5" style="0" width="9.9962962962963"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="10.5851851851852"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="62.7148148148148"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.3"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.3444444444444"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="110.440740740741"/>
+    <col collapsed="false" hidden="false" max="1023" min="5" style="0" width="10.1925925925926"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="10.7777777777778"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3433,10 +3434,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.8444444444444"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.1037037037037"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.2111111111111"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.9962962962963"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.7259259259259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.7888888888889"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.5814814814815"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.1925925925926"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3567,18 +3568,18 @@
   </sheetPr>
   <dimension ref="A1:F65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="105.440740740741"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="29.4962962962963"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.9296296296296"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.8148148148148"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.6"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.9962962962963"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="108.088888888889"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="30.1814814814815"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.4222222222222"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.2074074074074"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8962962962963"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.1925925925926"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3886,13 +3887,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="87.8037037037037"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.6407407407407"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.3407407407407"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.8185185185185"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.0481481481481"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.9962962962963"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="90.0555555555556"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.7518518518519"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.0296296296296"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.9296296296296"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.1111111111111"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.6333333333333"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.1925925925926"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/RINIELSENUS/MILLERCOORS/Data/Miller Coors KPI Template_v1.xlsx
+++ b/Projects/RINIELSENUS/MILLERCOORS/Data/Miller Coors KPI Template_v1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Adjacencies, Brands &amp; Segments" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,6 +32,7 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0_0_0" vbProcedure="false">'KPIs Reference'!$A$1:$D$42</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0_0_0_0" vbProcedure="false">'KPIs Reference'!$A$1:$D$42</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0" vbProcedure="false">'KPIs Reference'!$A$1:$D$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0" vbProcedure="false">'KPIs Reference'!$A$1:$D$42</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'KPIs Reference'!$A$2:$I$42</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">'KPIs Reference'!$A$2:$I$42</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'KPIs Reference'!$A$2:$I$42</definedName>
@@ -41,6 +42,7 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'KPIs Reference'!$A$2:$I$42</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'KPIs Reference'!$A$2:$I$42</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'KPIs Reference'!$A$2:$I$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'KPIs Reference'!$A$2:$I$42</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">KPIs!$A$1:$C$38</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0" vbProcedure="false">KPIs!$A$1:$C$38</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0" vbProcedure="false">KPIs!$A$1:$C$38</definedName>
@@ -50,6 +52,7 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$C$38</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$C$38</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$C$38</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$C$38</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$E$38</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$E$38</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$E$38</definedName>
@@ -59,6 +62,7 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$E$38</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$E$38</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$E$38</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$E$38</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -70,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="200">
   <si>
     <t xml:space="preserve">Next steps/Overall confirmations needed</t>
   </si>
@@ -603,7 +607,16 @@
     <t xml:space="preserve">KPI name</t>
   </si>
   <si>
+    <t xml:space="preserve">Write N/A</t>
+  </si>
+  <si>
     <t xml:space="preserve">Beer, Flavored Beer, Alcoholic Ciders and Alcoholic Malt Beverages - Cold Shelf (Open Deck Cooler)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
   </si>
   <si>
     <t xml:space="preserve">Are the blocks for Miller Lite and Miller High Life Brands Adjacent in the cold section?</t>
@@ -708,9 +721,6 @@
   </si>
   <si>
     <t xml:space="preserve">Hard Soda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
   </si>
   <si>
     <t xml:space="preserve">brand_name</t>
@@ -1072,11 +1082,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.9074074074074"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.3148148148148"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="58.7962962962963"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="63.8925925925926"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.6888888888889"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.3925925925926"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="60.2666666666667"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="65.5592592592593"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1458,16 +1468,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.6407407407407"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.42592592592593"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.7518518518519"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="96.9148148148148"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3851851851852"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.9111111111111"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.3222222222222"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.9259259259259"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="9" width="102.403703703704"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.837037037037"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.52592592592593"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.437037037037"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="99.3666666666667"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7777777777778"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.3037037037037"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.8111111111111"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="33.7111111111111"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="9" width="105.048148148148"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2565,32 +2575,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.42592592592593"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.7518518518519"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="96.9148148148148"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.6592592592593"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.7333333333333"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="110.440740740741"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.9111111111111"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="200.3"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.6037037037037"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="125.237037037037"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.52592592592593"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.437037037037"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="82.3296296296296"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.2851851851852"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.862962962963"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="113.181481481481"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.5"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="205.492592592593"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.8"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="128.37037037037"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.8"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>66</v>
       </c>
@@ -2605,6 +2615,9 @@
       </c>
       <c r="E1" s="4" t="s">
         <v>70</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2621,7 +2634,10 @@
         <v>75</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2638,7 +2654,10 @@
         <v>75</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2649,13 +2668,16 @@
         <v>17</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>161</v>
+      <c r="F4" s="0" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2666,13 +2688,16 @@
         <v>17</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>163</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2689,6 +2714,9 @@
         <v>75</v>
       </c>
       <c r="E6" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2700,13 +2728,16 @@
         <v>15</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>164</v>
+        <v>167</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2717,13 +2748,16 @@
         <v>15</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>164</v>
+        <v>167</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2740,7 +2774,10 @@
         <v>75</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>164</v>
+        <v>167</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2757,6 +2794,9 @@
         <v>75</v>
       </c>
       <c r="E10" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2768,13 +2808,16 @@
         <v>17</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2785,13 +2828,16 @@
         <v>17</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="13" s="18" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2808,7 +2854,10 @@
         <v>75</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2825,7 +2874,10 @@
         <v>75</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2842,7 +2894,10 @@
         <v>75</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2859,7 +2914,10 @@
         <v>75</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2876,7 +2934,10 @@
         <v>75</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2893,7 +2954,10 @@
         <v>75</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2910,7 +2974,10 @@
         <v>75</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2927,7 +2994,10 @@
         <v>75</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2944,7 +3014,10 @@
         <v>75</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2961,7 +3034,10 @@
         <v>75</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2978,7 +3054,10 @@
         <v>75</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>164</v>
+        <v>167</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2986,7 +3065,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>133</v>
@@ -2995,7 +3074,10 @@
         <v>75</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3003,7 +3085,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>135</v>
@@ -3012,7 +3094,10 @@
         <v>75</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3020,7 +3105,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>137</v>
@@ -3029,7 +3114,10 @@
         <v>75</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3037,7 +3125,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>138</v>
@@ -3046,7 +3134,10 @@
         <v>75</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3054,7 +3145,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>140</v>
@@ -3063,7 +3154,10 @@
         <v>75</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>164</v>
+        <v>167</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3071,7 +3165,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>141</v>
@@ -3080,7 +3174,10 @@
         <v>75</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>164</v>
+        <v>167</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3088,7 +3185,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>142</v>
@@ -3097,15 +3194,18 @@
         <v>75</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>167</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="12" t="n">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>143</v>
@@ -3114,49 +3214,58 @@
         <v>75</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>167</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="12" t="n">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>162</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="12" t="n">
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>167</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="12" t="n">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C34" s="20" t="s">
         <v>149</v>
@@ -3165,15 +3274,18 @@
         <v>75</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>162</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="12" t="n">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>151</v>
@@ -3182,15 +3294,18 @@
         <v>75</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>162</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="12" t="n">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C36" s="20" t="s">
         <v>153</v>
@@ -3199,15 +3314,18 @@
         <v>75</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>162</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="12" t="n">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C37" s="20" t="s">
         <v>155</v>
@@ -3216,58 +3334,70 @@
         <v>75</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>162</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="12" t="n">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>162</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="12" t="n">
         <v>38</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>162</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="12" t="n">
         <v>39</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3296,12 +3426,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="62.7148148148148"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.3"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.3444444444444"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="110.440740740741"/>
-    <col collapsed="false" hidden="false" max="1023" min="5" style="0" width="10.1925925925926"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="10.7777777777778"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="64.2851851851852"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.9851851851852"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.737037037037"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="113.181481481481"/>
+    <col collapsed="false" hidden="false" max="1023" min="5" style="0" width="10.3888888888889"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="11.0740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3309,10 +3439,10 @@
         <v>160</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3320,10 +3450,10 @@
         <v>133</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D2" s="23"/>
     </row>
@@ -3332,10 +3462,10 @@
         <v>135</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D3" s="23"/>
     </row>
@@ -3344,10 +3474,10 @@
         <v>137</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3355,7 +3485,7 @@
         <v>138</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>49</v>
@@ -3366,10 +3496,10 @@
         <v>140</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3377,10 +3507,10 @@
         <v>141</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3388,10 +3518,10 @@
         <v>142</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3399,7 +3529,7 @@
         <v>143</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>49</v>
@@ -3434,10 +3564,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.7259259259259"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.7888888888889"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.5814814814815"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.1925925925926"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.6111111111111"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.5740740740741"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="55.9555555555556"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.3888888888889"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3445,32 +3575,32 @@
         <v>160</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="20" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3481,7 +3611,7 @@
         <v>61</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3492,7 +3622,7 @@
         <v>62</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3503,7 +3633,7 @@
         <v>63</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3511,18 +3641,18 @@
         <v>155</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="20" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>25</v>
@@ -3530,21 +3660,21 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="25" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="25" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>30</v>
@@ -3574,12 +3704,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="108.088888888889"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="30.1814814814815"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.4222222222222"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.2074074074074"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8962962962963"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.1925925925926"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="110.82962962963"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="30.9666666666667"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.9111111111111"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.6962962962963"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.2888888888889"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.3888888888889"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3587,33 +3717,33 @@
         <v>160</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>25</v>
@@ -3621,16 +3751,16 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>25</v>
@@ -3641,10 +3771,10 @@
         <v>96</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -3653,41 +3783,41 @@
         <v>99</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="D5" s="3"/>
       <c r="F5" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D7" s="3"/>
       <c r="F7" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3695,16 +3825,16 @@
         <v>107</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3712,13 +3842,13 @@
         <v>110</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>44</v>
@@ -3729,13 +3859,13 @@
         <v>113</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>44</v>
@@ -3746,13 +3876,13 @@
         <v>114</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>31</v>
@@ -3763,16 +3893,16 @@
         <v>115</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3780,13 +3910,13 @@
         <v>117</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>49</v>
@@ -3797,13 +3927,13 @@
         <v>122</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>49</v>
@@ -3814,16 +3944,16 @@
         <v>125</v>
       </c>
       <c r="B15" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E15" s="0" t="s">
         <v>185</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3831,13 +3961,13 @@
         <v>127</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>41</v>
@@ -3848,13 +3978,13 @@
         <v>130</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>41</v>
@@ -3881,19 +4011,19 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="90.0555555555556"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.7518518518519"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.0296296296296"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.9296296296296"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.1111111111111"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.6333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.1925925925926"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="92.4074074074074"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.3407407407407"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.4222222222222"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.6148148148148"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.4037037037037"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.2222222222222"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.3888888888889"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3901,19 +4031,19 @@
         <v>160</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3921,13 +4051,13 @@
         <v>74</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>31</v>
@@ -3938,13 +4068,13 @@
         <v>80</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3952,47 +4082,47 @@
         <v>86</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>49</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>185</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4000,13 +4130,13 @@
         <v>119</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>181</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>178</v>
       </c>
     </row>
   </sheetData>
